--- a/reports/_MSC MEDITERRANEAM SHIPPING CO._SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-12-03_15_.xlsx
+++ b/reports/_MSC MEDITERRANEAM SHIPPING CO._SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-12-03_15_.xlsx
@@ -1634,7 +1634,7 @@
     <col min="11" max="11" bestFit="true" customWidth="true" width="28.389887640449437"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="26.6561797752809"/>
     <col min="13" max="13" bestFit="true" customWidth="true" width="24.8561797752809"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="47.08988764044945"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="50.389887640449444"/>
     <col min="15" max="15" bestFit="true" customWidth="true" width="55.88988764044944"/>
     <col min="16" max="16" bestFit="true" customWidth="true" width="28.4561797752809"/>
     <col min="17" max="17" bestFit="true" customWidth="true" width="21.2561797752809"/>
@@ -1923,10 +1923,10 @@
       </c>
       <c r="V6" s="0"/>
       <c r="W6" s="0"/>
-      <c r="X6" s="0" t="d">
+      <c r="X6" s="4" t="d">
         <v>2009-12-28T00:00:00</v>
       </c>
-      <c r="Y6" s="0" t="d">
+      <c r="Y6" s="4" t="d">
         <v>2009-12-29T00:00:00</v>
       </c>
       <c r="Z6" s="0" t="inlineStr">
@@ -15100,278 +15100,84 @@
       <c r="AG123" s="0"/>
     </row>
     <row r="124">
-      <c r="A124" s="0" t="n">
-        <v>119</v>
-      </c>
-      <c r="B124" s="0" t="n">
-        <v>9661</v>
-      </c>
-      <c r="C124" s="0" t="inlineStr">
-        <is>
-          <t>FCIU3983504</t>
-        </is>
-      </c>
-      <c r="D124" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E124" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F124" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="G124" s="0" t="inlineStr">
-        <is>
-          <t>MSC</t>
-        </is>
-      </c>
-      <c r="H124" s="0" t="inlineStr">
-        <is>
-          <t>MED</t>
-        </is>
-      </c>
-      <c r="I124" s="0" t="inlineStr">
-        <is>
-          <t>OEL INDIA</t>
-        </is>
-      </c>
-      <c r="J124" s="0" t="inlineStr">
-        <is>
-          <t>2738/2018</t>
-        </is>
-      </c>
-      <c r="K124" s="0" t="inlineStr">
-        <is>
-          <t>SHAFIUL ALAM STEEL RE-ROLLING MILLS</t>
-        </is>
-      </c>
-      <c r="L124" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
-      <c r="M124" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="A124" s="0"/>
+      <c r="B124" s="0"/>
+      <c r="C124" s="0"/>
+      <c r="D124" s="0"/>
+      <c r="E124" s="0"/>
+      <c r="F124" s="0"/>
+      <c r="G124" s="0"/>
+      <c r="H124" s="0"/>
+      <c r="I124" s="0"/>
+      <c r="J124" s="0"/>
+      <c r="K124" s="0"/>
+      <c r="L124" s="0"/>
+      <c r="M124" s="0"/>
       <c r="N124" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="O124" s="0" t="inlineStr">
-        <is>
           <t>R/SIDE PANEL CUT 10'X05' &amp; 04'.</t>
         </is>
       </c>
-      <c r="P124" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q124" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R124" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="O124" s="0"/>
+      <c r="P124" s="0"/>
+      <c r="Q124" s="0"/>
+      <c r="R124" s="0"/>
       <c r="S124" s="0"/>
-      <c r="T124" s="0" t="inlineStr">
-        <is>
-          <t>SCRAP</t>
-        </is>
-      </c>
-      <c r="U124" s="0" t="n">
-        <v>5061602</v>
-      </c>
+      <c r="T124" s="0"/>
+      <c r="U124" s="0"/>
       <c r="V124" s="0"/>
-      <c r="W124" s="0" t="inlineStr">
-        <is>
-          <t>2018-15529</t>
-        </is>
-      </c>
-      <c r="X124" s="4" t="d">
-        <v>2018-09-15T00:00:00</v>
-      </c>
-      <c r="Y124" s="4" t="d">
-        <v>2018-09-15T00:00:00</v>
-      </c>
-      <c r="Z124" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="AA124" s="0" t="inlineStr">
-        <is>
-          <t>SAPL</t>
-        </is>
-      </c>
-      <c r="AB124" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC124" s="0" t="inlineStr">
-        <is>
-          <t>MEDUUU261910</t>
-        </is>
-      </c>
-      <c r="AD124" s="0" t="n">
-        <v>22</v>
-      </c>
+      <c r="W124" s="0"/>
+      <c r="X124" s="4"/>
+      <c r="Y124" s="4"/>
+      <c r="Z124" s="0"/>
+      <c r="AA124" s="0"/>
+      <c r="AB124" s="0"/>
+      <c r="AC124" s="0"/>
+      <c r="AD124" s="0"/>
       <c r="AE124" s="0"/>
-      <c r="AF124" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AG124" s="0"/>
+      <c r="AF124" s="0"/>
     </row>
     <row r="125">
-      <c r="A125" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="B125" s="0" t="n">
-        <v>9661</v>
-      </c>
-      <c r="C125" s="0" t="inlineStr">
-        <is>
-          <t>FCIU3983504</t>
-        </is>
-      </c>
-      <c r="D125" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E125" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F125" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="G125" s="0" t="inlineStr">
-        <is>
-          <t>MSC</t>
-        </is>
-      </c>
-      <c r="H125" s="0" t="inlineStr">
-        <is>
-          <t>MED</t>
-        </is>
-      </c>
-      <c r="I125" s="0" t="inlineStr">
-        <is>
-          <t>OEL INDIA</t>
-        </is>
-      </c>
-      <c r="J125" s="0" t="inlineStr">
-        <is>
-          <t>2738/2018</t>
-        </is>
-      </c>
-      <c r="K125" s="0" t="inlineStr">
-        <is>
-          <t>SHAFIUL ALAM STEEL RE-ROLLING MILLS</t>
-        </is>
-      </c>
-      <c r="L125" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
-      <c r="M125" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="A125" s="0"/>
+      <c r="B125" s="0"/>
+      <c r="C125" s="0"/>
+      <c r="D125" s="0"/>
+      <c r="E125" s="0"/>
+      <c r="F125" s="0"/>
+      <c r="G125" s="0"/>
+      <c r="H125" s="0"/>
+      <c r="I125" s="0"/>
+      <c r="J125" s="0"/>
+      <c r="K125" s="0"/>
+      <c r="L125" s="0"/>
+      <c r="M125" s="0"/>
       <c r="N125" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="O125" s="0" t="inlineStr">
-        <is>
           <t>L/SIDE PANEL CUT 02' AT 02 PLS.</t>
         </is>
       </c>
-      <c r="P125" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q125" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R125" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="O125" s="0"/>
+      <c r="P125" s="0"/>
+      <c r="Q125" s="0"/>
+      <c r="R125" s="0"/>
       <c r="S125" s="0"/>
-      <c r="T125" s="0" t="inlineStr">
-        <is>
-          <t>SCRAP</t>
-        </is>
-      </c>
-      <c r="U125" s="0" t="n">
-        <v>5061602</v>
-      </c>
+      <c r="T125" s="0"/>
+      <c r="U125" s="0"/>
       <c r="V125" s="0"/>
-      <c r="W125" s="0" t="inlineStr">
-        <is>
-          <t>2018-15529</t>
-        </is>
-      </c>
-      <c r="X125" s="4" t="d">
-        <v>2018-09-15T00:00:00</v>
-      </c>
-      <c r="Y125" s="4" t="d">
-        <v>2018-09-15T00:00:00</v>
-      </c>
-      <c r="Z125" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="AA125" s="0" t="inlineStr">
-        <is>
-          <t>SAPL</t>
-        </is>
-      </c>
-      <c r="AB125" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC125" s="0" t="inlineStr">
-        <is>
-          <t>MEDUUU261910</t>
-        </is>
-      </c>
-      <c r="AD125" s="0" t="n">
-        <v>22</v>
-      </c>
+      <c r="W125" s="0"/>
+      <c r="X125" s="4"/>
+      <c r="Y125" s="4"/>
+      <c r="Z125" s="0"/>
+      <c r="AA125" s="0"/>
+      <c r="AB125" s="0"/>
+      <c r="AC125" s="0"/>
+      <c r="AD125" s="0"/>
       <c r="AE125" s="0"/>
-      <c r="AF125" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AG125" s="0"/>
+      <c r="AF125" s="0"/>
     </row>
     <row r="126">
       <c r="A126" s="0" t="n">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B126" s="0" t="n">
         <v>9662</v>
@@ -15482,7 +15288,7 @@
     </row>
     <row r="127">
       <c r="A127" s="0" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B127" s="0" t="n">
         <v>9663</v>
@@ -15593,7 +15399,7 @@
     </row>
     <row r="128">
       <c r="A128" s="0" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B128" s="0" t="n">
         <v>9664</v>
@@ -15704,7 +15510,7 @@
     </row>
     <row r="129">
       <c r="A129" s="0" t="n">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B129" s="0" t="n">
         <v>9665</v>
@@ -15815,7 +15621,7 @@
     </row>
     <row r="130">
       <c r="A130" s="0" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B130" s="0" t="n">
         <v>9666</v>
@@ -15926,7 +15732,7 @@
     </row>
     <row r="131">
       <c r="A131" s="0" t="n">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B131" s="0" t="n">
         <v>9667</v>
@@ -16037,7 +15843,7 @@
     </row>
     <row r="132">
       <c r="A132" s="0" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B132" s="0" t="n">
         <v>9668</v>
@@ -16148,7 +15954,7 @@
     </row>
     <row r="133">
       <c r="A133" s="0" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B133" s="0" t="n">
         <v>9669</v>
@@ -16259,7 +16065,7 @@
     </row>
     <row r="134">
       <c r="A134" s="0" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B134" s="0" t="n">
         <v>9670</v>
@@ -16394,7 +16200,7 @@
     </row>
     <row r="135">
       <c r="A135" s="0" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B135" s="0" t="n">
         <v>9671</v>
@@ -16505,7 +16311,7 @@
     </row>
     <row r="136">
       <c r="A136" s="0" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B136" s="0" t="n">
         <v>9672</v>
@@ -16616,7 +16422,7 @@
     </row>
     <row r="137">
       <c r="A137" s="0" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B137" s="0" t="n">
         <v>9673</v>
@@ -16727,7 +16533,7 @@
     </row>
     <row r="138">
       <c r="A138" s="0" t="n">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B138" s="0" t="n">
         <v>9674</v>
@@ -16838,7 +16644,7 @@
     </row>
     <row r="139">
       <c r="A139" s="0" t="n">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B139" s="0" t="n">
         <v>9675</v>
@@ -16973,7 +16779,7 @@
     </row>
     <row r="140">
       <c r="A140" s="0" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B140" s="0" t="n">
         <v>9676</v>
@@ -17084,7 +16890,7 @@
     </row>
     <row r="141">
       <c r="A141" s="0" t="n">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B141" s="0" t="n">
         <v>9738</v>
@@ -17195,7 +17001,7 @@
     </row>
     <row r="142">
       <c r="A142" s="0" t="n">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B142" s="0" t="n">
         <v>9739</v>
@@ -17306,7 +17112,7 @@
     </row>
     <row r="143">
       <c r="A143" s="0" t="n">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B143" s="0" t="n">
         <v>9740</v>
@@ -17417,7 +17223,7 @@
     </row>
     <row r="144">
       <c r="A144" s="0" t="n">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B144" s="0" t="n">
         <v>9741</v>
@@ -17528,7 +17334,7 @@
     </row>
     <row r="145">
       <c r="A145" s="0" t="n">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B145" s="0" t="n">
         <v>9742</v>
@@ -17639,7 +17445,7 @@
     </row>
     <row r="146">
       <c r="A146" s="0" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B146" s="0" t="n">
         <v>9743</v>
@@ -18278,7 +18084,7 @@
         </is>
       </c>
       <c r="V6" s="0"/>
-      <c r="W6" s="0" t="d">
+      <c r="W6" s="4" t="d">
         <v>2018-09-11T00:00:00</v>
       </c>
     </row>

--- a/reports/_MSC MEDITERRANEAM SHIPPING CO._SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-12-03_15_.xlsx
+++ b/reports/_MSC MEDITERRANEAM SHIPPING CO._SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-12-03_15_.xlsx
@@ -1622,7 +1622,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="7.489887640449439" hidden="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="250.58988764044943" hidden="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="8.656179775280899"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="12.2561797752809"/>
@@ -1634,7 +1634,7 @@
     <col min="11" max="11" bestFit="true" customWidth="true" width="28.389887640449437"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="26.6561797752809"/>
     <col min="13" max="13" bestFit="true" customWidth="true" width="24.8561797752809"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="50.389887640449444"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="47.08988764044945"/>
     <col min="15" max="15" bestFit="true" customWidth="true" width="55.88988764044944"/>
     <col min="16" max="16" bestFit="true" customWidth="true" width="28.4561797752809"/>
     <col min="17" max="17" bestFit="true" customWidth="true" width="21.2561797752809"/>
@@ -15100,80 +15100,28 @@
       <c r="AG123" s="0"/>
     </row>
     <row r="124">
-      <c r="A124" s="0"/>
-      <c r="B124" s="0"/>
-      <c r="C124" s="0"/>
-      <c r="D124" s="0"/>
-      <c r="E124" s="0"/>
-      <c r="F124" s="0"/>
-      <c r="G124" s="0"/>
-      <c r="H124" s="0"/>
-      <c r="I124" s="0"/>
-      <c r="J124" s="0"/>
-      <c r="K124" s="0"/>
-      <c r="L124" s="0"/>
-      <c r="M124" s="0"/>
-      <c r="N124" s="0" t="inlineStr">
-        <is>
-          <t>R/SIDE PANEL CUT 10'X05' &amp; 04'.</t>
-        </is>
-      </c>
-      <c r="O124" s="0"/>
-      <c r="P124" s="0"/>
-      <c r="Q124" s="0"/>
-      <c r="R124" s="0"/>
-      <c r="S124" s="0"/>
-      <c r="T124" s="0"/>
-      <c r="U124" s="0"/>
-      <c r="V124" s="0"/>
-      <c r="W124" s="0"/>
-      <c r="X124" s="4"/>
-      <c r="Y124" s="4"/>
-      <c r="Z124" s="0"/>
-      <c r="AA124" s="0"/>
-      <c r="AB124" s="0"/>
-      <c r="AC124" s="0"/>
-      <c r="AD124" s="0"/>
-      <c r="AE124" s="0"/>
-      <c r="AF124" s="0"/>
+      <c r="A124" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B124" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "R/SIDE PANEL CUT 10'X05' &amp; 04'.", "", "", "", nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil]</t>
+        </is>
+      </c>
     </row>
     <row r="125">
-      <c r="A125" s="0"/>
-      <c r="B125" s="0"/>
-      <c r="C125" s="0"/>
-      <c r="D125" s="0"/>
-      <c r="E125" s="0"/>
-      <c r="F125" s="0"/>
-      <c r="G125" s="0"/>
-      <c r="H125" s="0"/>
-      <c r="I125" s="0"/>
-      <c r="J125" s="0"/>
-      <c r="K125" s="0"/>
-      <c r="L125" s="0"/>
-      <c r="M125" s="0"/>
-      <c r="N125" s="0" t="inlineStr">
-        <is>
-          <t>L/SIDE PANEL CUT 02' AT 02 PLS.</t>
-        </is>
-      </c>
-      <c r="O125" s="0"/>
-      <c r="P125" s="0"/>
-      <c r="Q125" s="0"/>
-      <c r="R125" s="0"/>
-      <c r="S125" s="0"/>
-      <c r="T125" s="0"/>
-      <c r="U125" s="0"/>
-      <c r="V125" s="0"/>
-      <c r="W125" s="0"/>
-      <c r="X125" s="4"/>
-      <c r="Y125" s="4"/>
-      <c r="Z125" s="0"/>
-      <c r="AA125" s="0"/>
-      <c r="AB125" s="0"/>
-      <c r="AC125" s="0"/>
-      <c r="AD125" s="0"/>
-      <c r="AE125" s="0"/>
-      <c r="AF125" s="0"/>
+      <c r="A125" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B125" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "L/SIDE PANEL CUT 02' AT 02 PLS.", "", "", "", nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil]</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="0" t="n">

--- a/reports/_MSC MEDITERRANEAM SHIPPING CO._SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-12-03_15_.xlsx
+++ b/reports/_MSC MEDITERRANEAM SHIPPING CO._SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-12-03_15_.xlsx
@@ -1622,7 +1622,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="250.58988764044943" hidden="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="7.489887640449439" hidden="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="8.656179775280899"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="12.2561797752809"/>
@@ -15105,11 +15105,62 @@
           <t> </t>
         </is>
       </c>
-      <c r="B124" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "R/SIDE PANEL CUT 10'X05' &amp; 04'.", "", "", "", nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil]</t>
-        </is>
-      </c>
+      <c r="B124" s="0"/>
+      <c r="C124" s="0"/>
+      <c r="D124" s="0"/>
+      <c r="E124" s="0"/>
+      <c r="F124" s="0"/>
+      <c r="G124" s="0"/>
+      <c r="H124" s="0"/>
+      <c r="I124" s="0"/>
+      <c r="J124" s="0"/>
+      <c r="K124" s="0"/>
+      <c r="L124" s="0"/>
+      <c r="M124" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="N124" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="O124" s="0" t="inlineStr">
+        <is>
+          <t>R/SIDE PANEL CUT 10'X05' &amp; 04'.</t>
+        </is>
+      </c>
+      <c r="P124" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q124" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R124" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S124" s="0"/>
+      <c r="T124" s="0"/>
+      <c r="U124" s="0"/>
+      <c r="V124" s="0"/>
+      <c r="W124" s="0"/>
+      <c r="X124" s="4"/>
+      <c r="Y124" s="4"/>
+      <c r="Z124" s="0"/>
+      <c r="AA124" s="0"/>
+      <c r="AB124" s="0"/>
+      <c r="AC124" s="0"/>
+      <c r="AD124" s="0"/>
+      <c r="AE124" s="0"/>
+      <c r="AF124" s="0"/>
+      <c r="AG124" s="0"/>
     </row>
     <row r="125">
       <c r="A125" s="0" t="inlineStr">
@@ -15117,11 +15168,62 @@
           <t> </t>
         </is>
       </c>
-      <c r="B125" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "L/SIDE PANEL CUT 02' AT 02 PLS.", "", "", "", nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil]</t>
-        </is>
-      </c>
+      <c r="B125" s="0"/>
+      <c r="C125" s="0"/>
+      <c r="D125" s="0"/>
+      <c r="E125" s="0"/>
+      <c r="F125" s="0"/>
+      <c r="G125" s="0"/>
+      <c r="H125" s="0"/>
+      <c r="I125" s="0"/>
+      <c r="J125" s="0"/>
+      <c r="K125" s="0"/>
+      <c r="L125" s="0"/>
+      <c r="M125" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="N125" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="O125" s="0" t="inlineStr">
+        <is>
+          <t>L/SIDE PANEL CUT 02' AT 02 PLS.</t>
+        </is>
+      </c>
+      <c r="P125" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q125" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R125" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S125" s="0"/>
+      <c r="T125" s="0"/>
+      <c r="U125" s="0"/>
+      <c r="V125" s="0"/>
+      <c r="W125" s="0"/>
+      <c r="X125" s="4"/>
+      <c r="Y125" s="4"/>
+      <c r="Z125" s="0"/>
+      <c r="AA125" s="0"/>
+      <c r="AB125" s="0"/>
+      <c r="AC125" s="0"/>
+      <c r="AD125" s="0"/>
+      <c r="AE125" s="0"/>
+      <c r="AF125" s="0"/>
+      <c r="AG125" s="0"/>
     </row>
     <row r="126">
       <c r="A126" s="0" t="n">

--- a/reports/_MSC MEDITERRANEAM SHIPPING CO._SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-12-03_15_.xlsx
+++ b/reports/_MSC MEDITERRANEAM SHIPPING CO._SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-12-03_15_.xlsx
@@ -1680,7 +1680,7 @@
     <row ht="16" customHeight="true" r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Total number of conatiners:139</t>
+          <t>Total number of containers:139</t>
         </is>
       </c>
     </row>
@@ -17926,7 +17926,7 @@
     <row ht="16" customHeight="true" r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Total number of conatiners:40</t>
+          <t>Total number of containers:40</t>
         </is>
       </c>
     </row>
